--- a/biology/Zoologie/Hemiancistrus/Hemiancistrus.xlsx
+++ b/biology/Zoologie/Hemiancistrus/Hemiancistrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'Hemiancistrus est un genre de poissons très rare et surtout assez cher à l'achat mais très coloré. Il a un régime herbivore.
 Les espèces qui composent ce genre subissent de nombreuses modifications. Cette liste est basée sur Armbruster. Bien que les micromattos récemment décrits de H. et le spinosissimus de H. aient été considérés des synonymes de spilomma.[Quoi ?]
